--- a/biology/Zoologie/Cyriocosmus/Cyriocosmus.xlsx
+++ b/biology/Zoologie/Cyriocosmus/Cyriocosmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyriocosmus est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyriocosmus est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent  en Amérique du Sud et à Trinité-et-Tobago[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent  en Amérique du Sud et à Trinité-et-Tobago.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyriocosmus vivent dans les lieux chauds et humides. Elles habitent des petits terriers creusés par ces dernières qu'elles dissimulent sous un mince tapis de soie. Cette toile sert à avertir la mygale qu'un intrus ou une proie potentielle se promène à proximité.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Cyriocosmus mesurent de 10 à 32 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Cyriocosmus mesurent de 10 à 32 mm.
 Ces mygales sont appelées "mygales naines", elles se distinguent par leur variétés de couleurs mais surtout pour leur très petite taille par rapport aux autres mygales, bien que cette dernière caractéristique n'est pas unique à ce genre. Elles ont une envergure moyenne de 3 à 5 centimètres à l'âge adulte. Elles sont généralement ornées de motifs colorés parfois aux couleurs métalliques ce qui en fait des espèces très appréciés dans le milieu des collectionneurs.
 Elles ont un comportement généralement assez nerveux et ont tendance à fuir et à se cacher. Par contre, elles ne sont pas agressives et leur venin n'a pratiquement aucun effet sur les humains.
 Les Cyriocosmus se nourrissent exclusivement d'insectes. Malgré leur petite taille, elles sont dotés d'un force considérable leur permettant de s'attaquer à des proies légèrement plus grosses qu'elles.
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.0, 15/02/2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.0, 15/02/2020) :
 Cyriocosmus aueri Kaderka, 2016
 Cyriocosmus bertae Pérez-Miles, 1998
 Cyriocosmus bicolor (Schiapelli &amp; Gerschman, 1945)
@@ -660,7 +680,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1903 : Histoire naturelle des araignées. Paris, vol. 2, p. 669-1080 (texte intégral).</t>
         </is>
